--- a/_sync/实用技术挑战.xlsx
+++ b/_sync/实用技术挑战.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6802C61-122B-4F59-9905-ED1A758D6CF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B48B03C-00A8-46D5-9EC8-B11667CCB323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="游戏" sheetId="1" r:id="rId1"/>
-    <sheet name="绑定" sheetId="2" r:id="rId2"/>
+    <sheet name="绑定" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,31 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>捏脸+动画复用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捏人+捏脸+动画复用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捏人+捏脸+自动拟合动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变形和骨骼动画的适配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变形和骨骼的匹配,一定范围内捏人,动画按一定范围制作两套,混合复用,制作难度大,成本高(如果只是但调体型,需要两套就好,但是如果每根手臂或者每个手指都要调,动画数量会非常多)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅作部分捏人时,不可避免的会出现复用动画的穿插(比如手变成了垂地的,或者短的只有大臂那么长,按原动画拿武器就会出问题,混合问题同上),希望可以基于AI进行混合拟合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>基于骨架和标签的自动绑定工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,14 +35,6 @@
   </si>
   <si>
     <t>比如背后有很多种飘带,有的是披风,有的是多条,有的长有的短,可以用一套主控骨骼(两列控制三列,基于附着点,可扩张)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多人游戏情况下的无限循环地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是那种一直往上走,会循环去到同一个地方的效果,不过要在多人模式下没有违和感.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,64 +359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="150.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240E6135-9233-403B-AF8C-B754D171677A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,20 +373,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
